--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H2">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J2">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.28783173381261</v>
+        <v>4.588152333333333</v>
       </c>
       <c r="N2">
-        <v>4.28783173381261</v>
+        <v>13.764457</v>
       </c>
       <c r="O2">
-        <v>0.06190628803978747</v>
+        <v>0.0657579104775235</v>
       </c>
       <c r="P2">
-        <v>0.06190628803978747</v>
+        <v>0.06575791047752351</v>
       </c>
       <c r="Q2">
-        <v>203.7514456193576</v>
+        <v>223.6569779410937</v>
       </c>
       <c r="R2">
-        <v>203.7514456193576</v>
+        <v>2012.912801469843</v>
       </c>
       <c r="S2">
-        <v>0.00953161308965093</v>
+        <v>0.01018847028700115</v>
       </c>
       <c r="T2">
-        <v>0.00953161308965093</v>
+        <v>0.01018847028700116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H3">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J3">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.7548877710294</v>
+        <v>48.778187</v>
       </c>
       <c r="N3">
-        <v>48.7548877710294</v>
+        <v>146.334561</v>
       </c>
       <c r="O3">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="P3">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="Q3">
-        <v>2316.760423694117</v>
+        <v>2377.772380094371</v>
       </c>
       <c r="R3">
-        <v>2316.760423694117</v>
+        <v>21399.95142084934</v>
       </c>
       <c r="S3">
-        <v>0.1083794223542437</v>
+        <v>0.1083170463397036</v>
       </c>
       <c r="T3">
-        <v>0.1083794223542437</v>
+        <v>0.1083170463397036</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H4">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J4">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.42168686919029</v>
+        <v>5.528465</v>
       </c>
       <c r="N4">
-        <v>5.42168686919029</v>
+        <v>16.585395</v>
       </c>
       <c r="O4">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079882</v>
       </c>
       <c r="P4">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079884</v>
       </c>
       <c r="Q4">
-        <v>257.630570850495</v>
+        <v>269.4940544083449</v>
       </c>
       <c r="R4">
-        <v>257.630570850495</v>
+        <v>2425.446489675104</v>
       </c>
       <c r="S4">
-        <v>0.01205211042281567</v>
+        <v>0.01227653253271651</v>
       </c>
       <c r="T4">
-        <v>0.01205211042281567</v>
+        <v>0.01227653253271651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H5">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J5">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.87383925051186</v>
+        <v>6.913249333333333</v>
       </c>
       <c r="N5">
-        <v>6.87383925051186</v>
+        <v>20.739748</v>
       </c>
       <c r="O5">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612383</v>
       </c>
       <c r="P5">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612384</v>
       </c>
       <c r="Q5">
-        <v>326.6347121792353</v>
+        <v>336.9976280894946</v>
       </c>
       <c r="R5">
-        <v>326.6347121792353</v>
+        <v>3032.978652805451</v>
       </c>
       <c r="S5">
-        <v>0.0152801649513606</v>
+        <v>0.01535159042291981</v>
       </c>
       <c r="T5">
-        <v>0.0152801649513606</v>
+        <v>0.01535159042291982</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.5185264413788</v>
+        <v>48.746633</v>
       </c>
       <c r="H6">
-        <v>47.5185264413788</v>
+        <v>146.239899</v>
       </c>
       <c r="I6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="J6">
-        <v>0.1539684156724906</v>
+        <v>0.1549390820513319</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.9250209931668</v>
+        <v>3.965336333333334</v>
       </c>
       <c r="N6">
-        <v>3.9250209931668</v>
+        <v>11.896009</v>
       </c>
       <c r="O6">
-        <v>0.05666814727105512</v>
+        <v>0.056831642168072</v>
       </c>
       <c r="P6">
-        <v>0.05666814727105512</v>
+        <v>0.05683164216807201</v>
       </c>
       <c r="Q6">
-        <v>186.5112138467635</v>
+        <v>193.2967949625657</v>
       </c>
       <c r="R6">
-        <v>186.5112138467635</v>
+        <v>1739.671154663091</v>
       </c>
       <c r="S6">
-        <v>0.008725104854419727</v>
+        <v>0.008805442468990845</v>
       </c>
       <c r="T6">
-        <v>0.008725104854419727</v>
+        <v>0.008805442468990846</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H7">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J7">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.28783173381261</v>
+        <v>4.588152333333333</v>
       </c>
       <c r="N7">
-        <v>4.28783173381261</v>
+        <v>13.764457</v>
       </c>
       <c r="O7">
-        <v>0.06190628803978747</v>
+        <v>0.0657579104775235</v>
       </c>
       <c r="P7">
-        <v>0.06190628803978747</v>
+        <v>0.06575791047752351</v>
       </c>
       <c r="Q7">
-        <v>76.73930420645543</v>
+        <v>85.59502219394624</v>
       </c>
       <c r="R7">
-        <v>76.73930420645543</v>
+        <v>770.3551997455161</v>
       </c>
       <c r="S7">
-        <v>0.003589910021209994</v>
+        <v>0.003899195761144161</v>
       </c>
       <c r="T7">
-        <v>0.003589910021209994</v>
+        <v>0.003899195761144161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H8">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J8">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.7548877710294</v>
+        <v>48.778187</v>
       </c>
       <c r="N8">
-        <v>48.7548877710294</v>
+        <v>146.334561</v>
       </c>
       <c r="O8">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="P8">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="Q8">
-        <v>872.5659952345809</v>
+        <v>909.9894021635854</v>
       </c>
       <c r="R8">
-        <v>872.5659952345809</v>
+        <v>8189.904619472269</v>
       </c>
       <c r="S8">
-        <v>0.04081915314259767</v>
+        <v>0.04145365850320806</v>
       </c>
       <c r="T8">
-        <v>0.04081915314259767</v>
+        <v>0.04145365850320806</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H9">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J9">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.42168686919029</v>
+        <v>5.528465</v>
       </c>
       <c r="N9">
-        <v>5.42168686919029</v>
+        <v>16.585395</v>
       </c>
       <c r="O9">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079882</v>
       </c>
       <c r="P9">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079884</v>
       </c>
       <c r="Q9">
-        <v>97.03190418738605</v>
+        <v>103.1371781044733</v>
       </c>
       <c r="R9">
-        <v>97.03190418738605</v>
+        <v>928.2346029402599</v>
       </c>
       <c r="S9">
-        <v>0.004539209845872992</v>
+        <v>0.004698311156110376</v>
       </c>
       <c r="T9">
-        <v>0.004539209845872992</v>
+        <v>0.004698311156110376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H10">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J10">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.87383925051186</v>
+        <v>6.913249333333333</v>
       </c>
       <c r="N10">
-        <v>6.87383925051186</v>
+        <v>20.739748</v>
       </c>
       <c r="O10">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612383</v>
       </c>
       <c r="P10">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612384</v>
       </c>
       <c r="Q10">
-        <v>123.0210684695577</v>
+        <v>128.9712474932249</v>
       </c>
       <c r="R10">
-        <v>123.0210684695577</v>
+        <v>1160.741227439024</v>
       </c>
       <c r="S10">
-        <v>0.005754998316516856</v>
+        <v>0.005875156389300216</v>
       </c>
       <c r="T10">
-        <v>0.005754998316516856</v>
+        <v>0.005875156389300216</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>17.8969952578389</v>
+        <v>18.65566266666667</v>
       </c>
       <c r="H11">
-        <v>17.8969952578389</v>
+        <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958762</v>
       </c>
       <c r="J11">
-        <v>0.05798942457836823</v>
+        <v>0.05929622356958761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.9250209931668</v>
+        <v>3.965336333333334</v>
       </c>
       <c r="N11">
-        <v>3.9250209931668</v>
+        <v>11.896009</v>
       </c>
       <c r="O11">
-        <v>0.05666814727105512</v>
+        <v>0.056831642168072</v>
       </c>
       <c r="P11">
-        <v>0.05666814727105512</v>
+        <v>0.05683164216807201</v>
       </c>
       <c r="Q11">
-        <v>70.24608210162434</v>
+        <v>73.97597699454357</v>
       </c>
       <c r="R11">
-        <v>70.24608210162434</v>
+        <v>665.7837929508921</v>
       </c>
       <c r="S11">
-        <v>0.003286153252170714</v>
+        <v>0.003369901759824801</v>
       </c>
       <c r="T11">
-        <v>0.003286153252170714</v>
+        <v>0.003369901759824801</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H12">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J12">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.28783173381261</v>
+        <v>4.588152333333333</v>
       </c>
       <c r="N12">
-        <v>4.28783173381261</v>
+        <v>13.764457</v>
       </c>
       <c r="O12">
-        <v>0.06190628803978747</v>
+        <v>0.0657579104775235</v>
       </c>
       <c r="P12">
-        <v>0.06190628803978747</v>
+        <v>0.06575791047752351</v>
       </c>
       <c r="Q12">
-        <v>417.554724573099</v>
+        <v>448.0852640534076</v>
       </c>
       <c r="R12">
-        <v>417.554724573099</v>
+        <v>4032.767376480668</v>
       </c>
       <c r="S12">
-        <v>0.01953345688561052</v>
+        <v>0.0204120767475165</v>
       </c>
       <c r="T12">
-        <v>0.01953345688561052</v>
+        <v>0.02041207674751651</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H13">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J13">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.7548877710294</v>
+        <v>48.778187</v>
       </c>
       <c r="N13">
-        <v>48.7548877710294</v>
+        <v>146.334561</v>
       </c>
       <c r="O13">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="P13">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="Q13">
-        <v>4747.815445808776</v>
+        <v>4763.74479616773</v>
       </c>
       <c r="R13">
-        <v>4747.815445808776</v>
+        <v>42873.70316550957</v>
       </c>
       <c r="S13">
-        <v>0.2221056135967771</v>
+        <v>0.2170076371299017</v>
       </c>
       <c r="T13">
-        <v>0.2221056135967771</v>
+        <v>0.2170076371299017</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H14">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J14">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.42168686919029</v>
+        <v>5.528465</v>
       </c>
       <c r="N14">
-        <v>5.42168686919029</v>
+        <v>16.585395</v>
       </c>
       <c r="O14">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079882</v>
       </c>
       <c r="P14">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079884</v>
       </c>
       <c r="Q14">
-        <v>527.9710370941705</v>
+        <v>539.9174916965534</v>
       </c>
       <c r="R14">
-        <v>527.9710370941705</v>
+        <v>4859.257425268979</v>
       </c>
       <c r="S14">
-        <v>0.02469879726657145</v>
+        <v>0.02459540217444658</v>
       </c>
       <c r="T14">
-        <v>0.02469879726657145</v>
+        <v>0.02459540217444658</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H15">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J15">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.87383925051186</v>
+        <v>6.913249333333333</v>
       </c>
       <c r="N15">
-        <v>6.87383925051186</v>
+        <v>20.739748</v>
       </c>
       <c r="O15">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612383</v>
       </c>
       <c r="P15">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612384</v>
       </c>
       <c r="Q15">
-        <v>669.3835563493856</v>
+        <v>675.1574333067502</v>
       </c>
       <c r="R15">
-        <v>669.3835563493856</v>
+        <v>6076.416899760752</v>
       </c>
       <c r="S15">
-        <v>0.03131415852438362</v>
+        <v>0.03075612266434861</v>
       </c>
       <c r="T15">
-        <v>0.03131415852438362</v>
+        <v>0.03075612266434861</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.38132242466099</v>
+        <v>97.66137466666667</v>
       </c>
       <c r="H16">
-        <v>97.38132242466099</v>
+        <v>292.984124</v>
       </c>
       <c r="I16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="J16">
-        <v>0.3155326785714607</v>
+        <v>0.310412490288807</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.9250209931668</v>
+        <v>3.965336333333334</v>
       </c>
       <c r="N16">
-        <v>3.9250209931668</v>
+        <v>11.896009</v>
       </c>
       <c r="O16">
-        <v>0.05666814727105512</v>
+        <v>0.056831642168072</v>
       </c>
       <c r="P16">
-        <v>0.05666814727105512</v>
+        <v>0.05683164216807201</v>
       </c>
       <c r="Q16">
-        <v>382.2237348591393</v>
+        <v>387.260197329013</v>
       </c>
       <c r="R16">
-        <v>382.2237348591393</v>
+        <v>3485.341775961117</v>
       </c>
       <c r="S16">
-        <v>0.01788065229811803</v>
+        <v>0.0176412515725936</v>
       </c>
       <c r="T16">
-        <v>0.01788065229811803</v>
+        <v>0.01764125157259361</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H17">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J17">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.28783173381261</v>
+        <v>4.588152333333333</v>
       </c>
       <c r="N17">
-        <v>4.28783173381261</v>
+        <v>13.764457</v>
       </c>
       <c r="O17">
-        <v>0.06190628803978747</v>
+        <v>0.0657579104775235</v>
       </c>
       <c r="P17">
-        <v>0.06190628803978747</v>
+        <v>0.06575791047752351</v>
       </c>
       <c r="Q17">
-        <v>586.8923328093084</v>
+        <v>636.4681001576677</v>
       </c>
       <c r="R17">
-        <v>586.8923328093084</v>
+        <v>5728.212901419009</v>
       </c>
       <c r="S17">
-        <v>0.02745517031605054</v>
+        <v>0.02899366872778001</v>
       </c>
       <c r="T17">
-        <v>0.02745517031605054</v>
+        <v>0.02899366872778002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H18">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J18">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>48.7548877710294</v>
+        <v>48.778187</v>
       </c>
       <c r="N18">
-        <v>48.7548877710294</v>
+        <v>146.334561</v>
       </c>
       <c r="O18">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="P18">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="Q18">
-        <v>6673.272552687808</v>
+        <v>6766.505938234711</v>
       </c>
       <c r="R18">
-        <v>6673.272552687808</v>
+        <v>60898.5534441124</v>
       </c>
       <c r="S18">
-        <v>0.3121796354408998</v>
+        <v>0.3082414210062276</v>
       </c>
       <c r="T18">
-        <v>0.3121796354408998</v>
+        <v>0.3082414210062276</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H19">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J19">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.42168686919029</v>
+        <v>5.528465</v>
       </c>
       <c r="N19">
-        <v>5.42168686919029</v>
+        <v>16.585395</v>
       </c>
       <c r="O19">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079882</v>
       </c>
       <c r="P19">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079884</v>
       </c>
       <c r="Q19">
-        <v>742.0875286053714</v>
+        <v>766.9081930376534</v>
       </c>
       <c r="R19">
-        <v>742.0875286053714</v>
+        <v>6902.17373733888</v>
       </c>
       <c r="S19">
-        <v>0.03471529333114906</v>
+        <v>0.03493573690189006</v>
       </c>
       <c r="T19">
-        <v>0.03471529333114906</v>
+        <v>0.03493573690189006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H20">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J20">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.87383925051186</v>
+        <v>6.913249333333333</v>
       </c>
       <c r="N20">
-        <v>6.87383925051186</v>
+        <v>20.739748</v>
       </c>
       <c r="O20">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612383</v>
       </c>
       <c r="P20">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612384</v>
       </c>
       <c r="Q20">
-        <v>940.8493158153857</v>
+        <v>959.0053575893903</v>
       </c>
       <c r="R20">
-        <v>940.8493158153857</v>
+        <v>8631.048218304513</v>
       </c>
       <c r="S20">
-        <v>0.04401348725038471</v>
+        <v>0.04368653140546249</v>
       </c>
       <c r="T20">
-        <v>0.04401348725038471</v>
+        <v>0.0436865314054625</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>136.873918857693</v>
+        <v>138.7199146666667</v>
       </c>
       <c r="H21">
-        <v>136.873918857693</v>
+        <v>416.159744</v>
       </c>
       <c r="I21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="J21">
-        <v>0.4434956639365127</v>
+        <v>0.4409152985128724</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.9250209931668</v>
+        <v>3.965336333333334</v>
       </c>
       <c r="N21">
-        <v>3.9250209931668</v>
+        <v>11.896009</v>
       </c>
       <c r="O21">
-        <v>0.05666814727105512</v>
+        <v>0.056831642168072</v>
       </c>
       <c r="P21">
-        <v>0.05666814727105512</v>
+        <v>0.05683164216807201</v>
       </c>
       <c r="Q21">
-        <v>537.2330049334543</v>
+        <v>550.071117784633</v>
       </c>
       <c r="R21">
-        <v>537.2330049334543</v>
+        <v>4950.640060061697</v>
       </c>
       <c r="S21">
-        <v>0.02513207759802867</v>
+        <v>0.02505794047151222</v>
       </c>
       <c r="T21">
-        <v>0.02513207759802867</v>
+        <v>0.02505794047151222</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H22">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J22">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.28783173381261</v>
+        <v>4.588152333333333</v>
       </c>
       <c r="N22">
-        <v>4.28783173381261</v>
+        <v>13.764457</v>
       </c>
       <c r="O22">
-        <v>0.06190628803978747</v>
+        <v>0.0657579104775235</v>
       </c>
       <c r="P22">
-        <v>0.06190628803978747</v>
+        <v>0.06575791047752351</v>
       </c>
       <c r="Q22">
-        <v>38.39493431171287</v>
+        <v>49.71020951661878</v>
       </c>
       <c r="R22">
-        <v>38.39493431171287</v>
+        <v>447.391885649569</v>
       </c>
       <c r="S22">
-        <v>0.001796137727265485</v>
+        <v>0.002264498954081664</v>
       </c>
       <c r="T22">
-        <v>0.001796137727265485</v>
+        <v>0.002264498954081665</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H23">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J23">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>48.7548877710294</v>
+        <v>48.778187</v>
       </c>
       <c r="N23">
-        <v>48.7548877710294</v>
+        <v>146.334561</v>
       </c>
       <c r="O23">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="P23">
-        <v>0.7039068492123722</v>
+        <v>0.6990944112074818</v>
       </c>
       <c r="Q23">
-        <v>436.5704695410549</v>
+        <v>528.4859175216596</v>
       </c>
       <c r="R23">
-        <v>436.5704695410549</v>
+        <v>4756.373257694937</v>
       </c>
       <c r="S23">
-        <v>0.02042302467785401</v>
+        <v>0.02407464822844079</v>
       </c>
       <c r="T23">
-        <v>0.02042302467785401</v>
+        <v>0.02407464822844079</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H24">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J24">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.42168686919029</v>
+        <v>5.528465</v>
       </c>
       <c r="N24">
-        <v>5.42168686919029</v>
+        <v>16.585395</v>
       </c>
       <c r="O24">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079882</v>
       </c>
       <c r="P24">
-        <v>0.07827651125833471</v>
+        <v>0.07923457639079884</v>
       </c>
       <c r="Q24">
-        <v>48.54791981684017</v>
+        <v>59.89800108830166</v>
       </c>
       <c r="R24">
-        <v>48.54791981684017</v>
+        <v>539.082009794715</v>
       </c>
       <c r="S24">
-        <v>0.002271100391925535</v>
+        <v>0.002728593625635305</v>
       </c>
       <c r="T24">
-        <v>0.002271100391925535</v>
+        <v>0.002728593625635305</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H25">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J25">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.87383925051186</v>
+        <v>6.913249333333333</v>
       </c>
       <c r="N25">
-        <v>6.87383925051186</v>
+        <v>20.739748</v>
       </c>
       <c r="O25">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612383</v>
       </c>
       <c r="P25">
-        <v>0.09924220421845056</v>
+        <v>0.09908145975612384</v>
       </c>
       <c r="Q25">
-        <v>61.55106423870936</v>
+        <v>74.9014086354351</v>
       </c>
       <c r="R25">
-        <v>61.55106423870936</v>
+        <v>674.112677718916</v>
       </c>
       <c r="S25">
-        <v>0.002879395175804775</v>
+        <v>0.003412058874092693</v>
       </c>
       <c r="T25">
-        <v>0.002879395175804775</v>
+        <v>0.003412058874092693</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.95439389772258</v>
+        <v>10.83447233333333</v>
       </c>
       <c r="H26">
-        <v>8.95439389772258</v>
+        <v>32.503417</v>
       </c>
       <c r="I26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="J26">
-        <v>0.02901381724116778</v>
+        <v>0.03443690557740099</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.9250209931668</v>
+        <v>3.965336333333334</v>
       </c>
       <c r="N26">
-        <v>3.9250209931668</v>
+        <v>11.896009</v>
       </c>
       <c r="O26">
-        <v>0.05666814727105512</v>
+        <v>0.056831642168072</v>
       </c>
       <c r="P26">
-        <v>0.05666814727105512</v>
+        <v>0.05683164216807201</v>
       </c>
       <c r="Q26">
-        <v>35.14618402964582</v>
+        <v>42.96232679586144</v>
       </c>
       <c r="R26">
-        <v>35.14618402964582</v>
+        <v>386.660941162753</v>
       </c>
       <c r="S26">
-        <v>0.001644159268317974</v>
+        <v>0.001957105895150536</v>
       </c>
       <c r="T26">
-        <v>0.001644159268317974</v>
+        <v>0.001957105895150536</v>
       </c>
     </row>
   </sheetData>
